--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -40,64 +40,25 @@
     <t>主键</t>
   </si>
   <si>
-    <t>team_id</t>
-  </si>
-  <si>
-    <t>球队表ID(外键)</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>nick_name</t>
+    <t>name</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>avatar_url</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>openid</t>
-  </si>
-  <si>
-    <t>微信登录唯一标识</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>余额</t>
-  </si>
-  <si>
-    <t>win_num</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>赢的场次</t>
-  </si>
-  <si>
-    <t>lose_num</t>
-  </si>
-  <si>
-    <t>输的场次</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>用户类型(1:普通用户 2:场馆管理员)</t>
+    <t>权限(0:系统管理员 1:抽奖 2:商城 3:抽奖+抽奖设置 4:抽奖+商城)</t>
   </si>
   <si>
     <t>is_del</t>
@@ -1161,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1244,87 +1205,21 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>是否删除(0:未删除 1:已删除)</t>
+  </si>
+  <si>
+    <t>产品类型表(product_type)</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>类型(0:商城 1:抽奖)</t>
   </si>
 </sst>
 </file>
@@ -73,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -85,9 +97,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,46 +170,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,22 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,52 +204,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,43 +269,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,139 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +478,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -508,17 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,11 +545,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +580,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1222,10 +1234,73 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,12 +113,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -118,23 +188,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,79 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,31 +269,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,151 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,11 +480,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +519,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -513,17 +537,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,186 +575,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -77,6 +77,48 @@
   </si>
   <si>
     <t>类型(0:商城 1:抽奖)</t>
+  </si>
+  <si>
+    <t>商城产品表(mail_product)</t>
+  </si>
+  <si>
+    <t>product_type_id</t>
+  </si>
+  <si>
+    <t>产品类型表ID(外键)</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态(0:上架 1:下架)</t>
   </si>
 </sst>
 </file>
@@ -84,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +139,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -106,12 +176,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -127,107 +260,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +289,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -269,19 +311,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,157 +461,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,30 +516,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,11 +570,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,148 +622,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,10 +1176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1296,11 +1338,129 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -34,15 +34,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>用户名</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>权限(0:系统管理员 1:抽奖 2:商城 3:抽奖+抽奖设置 4:抽奖+商城)</t>
   </si>
   <si>
@@ -119,6 +119,63 @@
   </si>
   <si>
     <t>状态(0:上架 1:下架)</t>
+  </si>
+  <si>
+    <t>抽奖产品表(lottery_product)</t>
+  </si>
+  <si>
+    <t>客户表(customer)</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>consumption_amount</t>
+  </si>
+  <si>
+    <t>消费金额</t>
+  </si>
+  <si>
+    <t>number_winners</t>
+  </si>
+  <si>
+    <t>中奖量</t>
+  </si>
+  <si>
+    <t>recharge_points</t>
+  </si>
+  <si>
+    <t>充值积分</t>
+  </si>
+  <si>
+    <t>consumption_points</t>
+  </si>
+  <si>
+    <t>消费积分</t>
+  </si>
+  <si>
+    <t>residual_integral</t>
+  </si>
+  <si>
+    <t>剩余积分</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>邀请码</t>
   </si>
 </sst>
 </file>
@@ -140,14 +197,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,10 +239,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,24 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,25 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +333,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -311,24 +368,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,145 +476,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,6 +573,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,30 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,6 +629,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +682,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +694,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,19 +1233,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="98.5583333333333" customWidth="1"/>
-    <col min="4" max="4" width="42.3083333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="98.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="42.3055555555556" customWidth="1"/>
+    <col min="5" max="5" width="31.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1237,29 +1294,29 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>14</v>
@@ -1270,7 +1327,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>16</v>
@@ -1310,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>18</v>
@@ -1321,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>20</v>
@@ -1332,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>16</v>
@@ -1372,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>23</v>
@@ -1383,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>18</v>
@@ -1394,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>25</v>
@@ -1405,7 +1462,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>27</v>
@@ -1427,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>32</v>
@@ -1438,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>34</v>
@@ -1449,18 +1506,276 @@
         <v>15</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A46:C46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -176,6 +176,169 @@
   </si>
   <si>
     <t>邀请码</t>
+  </si>
+  <si>
+    <t>is_mail</t>
+  </si>
+  <si>
+    <t>是否是商城客户(0:否 1:是)</t>
+  </si>
+  <si>
+    <t>is_lottery</t>
+  </si>
+  <si>
+    <t>是否是抽奖客户(0:否 1:是)</t>
+  </si>
+  <si>
+    <t>商城订单表(mail_order)</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户表id(外键)</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>收货地址表id(外键)</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>实付金额</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>total_num</t>
+  </si>
+  <si>
+    <t>商品总数量</t>
+  </si>
+  <si>
+    <t>member_cut</t>
+  </si>
+  <si>
+    <t>会员优惠</t>
+  </si>
+  <si>
+    <t>订单状态 (0:待付款 1:已付款 2:待发货 3:已发货
+4:待收货 5:交易成功 6:交易关闭 7:已评价 8:退款 9:取消订单 10:现场取货)</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>payment_time</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>consign_time</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>refund_time</t>
+  </si>
+  <si>
+    <t>退款时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>交易完成时间</t>
+  </si>
+  <si>
+    <t>close_time</t>
+  </si>
+  <si>
+    <t>交易关闭时间</t>
+  </si>
+  <si>
+    <t>订单详情表(order_item)</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>订单表id(外键)</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>产品表id(外键)</t>
+  </si>
+  <si>
+    <t>产品类型表id(外键)</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>产品类型</t>
+  </si>
+  <si>
+    <t>商品购买数量</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>商品标题</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品总金额</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>freight</t>
+  </si>
+  <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>商品优惠</t>
+  </si>
+  <si>
+    <t>是否删除(0:未删除 1:已删除 2:取消订单)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +351,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -197,14 +360,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +393,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,17 +406,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,54 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,8 +451,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +474,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -368,187 +542,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +766,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -609,11 +792,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,18 +831,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,172 +848,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +1016,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1233,19 +1422,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="98.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="42.3055555555556" customWidth="1"/>
-    <col min="5" max="5" width="31.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="98.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="42.3083333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1748,34 +1937,424 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="1:3">
+      <c r="A73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A84:C84"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -235,8 +235,7 @@
     <t>会员优惠</t>
   </si>
   <si>
-    <t>订单状态 (0:待付款 1:已付款 2:待发货 3:已发货
-4:待收货 5:交易成功 6:交易关闭 7:已评价 8:退款 9:取消订单 10:现场取货)</t>
+    <t>订单状态(0:待付款 1:已付款 2:待发货 3:待收货 4:已完成)</t>
   </si>
   <si>
     <t>create_time</t>
@@ -248,12 +247,6 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
     <t>payment_time</t>
   </si>
   <si>
@@ -266,24 +259,12 @@
     <t>发货时间</t>
   </si>
   <si>
-    <t>refund_time</t>
-  </si>
-  <si>
-    <t>退款时间</t>
-  </si>
-  <si>
     <t>end_time</t>
   </si>
   <si>
     <t>交易完成时间</t>
   </si>
   <si>
-    <t>close_time</t>
-  </si>
-  <si>
-    <t>交易关闭时间</t>
-  </si>
-  <si>
     <t>订单详情表(order_item)</t>
   </si>
   <si>
@@ -293,19 +274,19 @@
     <t>订单表id(外键)</t>
   </si>
   <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>产品表id(外键)</t>
+    <t>mail_product_id</t>
+  </si>
+  <si>
+    <t>商城产品表id(外键)</t>
   </si>
   <si>
     <t>产品类型表id(外键)</t>
   </si>
   <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>产品类型</t>
+    <t>product_type_name</t>
+  </si>
+  <si>
+    <t>产品类型名称</t>
   </si>
   <si>
     <t>商品购买数量</t>
@@ -324,12 +305,6 @@
   </si>
   <si>
     <t>商品图片</t>
-  </si>
-  <si>
-    <t>freight</t>
-  </si>
-  <si>
-    <t>运费</t>
   </si>
   <si>
     <t>discount</t>
@@ -346,8 +321,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -373,48 +348,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,7 +369,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +421,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -467,11 +451,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,42 +489,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -542,37 +517,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,145 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,6 +722,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,25 +795,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,188 +823,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,17 +1397,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="98.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="71.15" customWidth="1"/>
     <col min="4" max="4" width="42.3083333333333" customWidth="1"/>
     <col min="5" max="5" width="31.1083333333333" customWidth="1"/>
   </cols>
@@ -1991,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>7</v>
@@ -2002,7 +1977,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>60</v>
@@ -2013,7 +1988,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>62</v>
@@ -2074,7 +2049,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:3">
+    <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
         <v>33</v>
       </c>
@@ -2130,219 +2105,175 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="9" t="s">
+      <c r="B84" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="9" t="s">
+      <c r="B85" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2285,7 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A81:C81"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="102">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>是否删除(0:未删除 1:已删除 2:取消订单)</t>
+  </si>
+  <si>
+    <t>购物车表(car_table)</t>
+  </si>
+  <si>
+    <t>产品数量</t>
   </si>
 </sst>
 </file>
@@ -321,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -345,8 +351,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,8 +396,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -377,45 +428,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,38 +447,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,20 +488,19 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -517,187 +523,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,17 +732,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -754,9 +749,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,6 +772,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,30 +810,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -828,148 +834,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,10 +1403,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2276,8 +2282,103 @@
         <v>99</v>
       </c>
     </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2286,6 +2387,7 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -320,6 +320,21 @@
   </si>
   <si>
     <t>产品数量</t>
+  </si>
+  <si>
+    <t>运送信息表(shipping_information)</t>
+  </si>
+  <si>
+    <t>logistics_company</t>
+  </si>
+  <si>
+    <t>物流公司</t>
+  </si>
+  <si>
+    <t>waybill_number</t>
+  </si>
+  <si>
+    <t>运单号码</t>
   </si>
 </sst>
 </file>
@@ -329,8 +344,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -351,69 +366,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,8 +387,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,9 +416,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,9 +502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,22 +511,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,19 +538,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,97 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,61 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +747,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -749,29 +788,35 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,37 +840,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,148 +849,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,10 +1418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2377,8 +2392,92 @@
         <v>16</v>
       </c>
     </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2388,6 +2487,7 @@
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A109:C109"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -193,132 +193,138 @@
     <t>商城订单表(mail_order)</t>
   </si>
   <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>客户表id(外键)</t>
+  </si>
+  <si>
+    <t>address_id</t>
+  </si>
+  <si>
+    <t>收货地址表id(外键)</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>实付金额</t>
+  </si>
+  <si>
+    <t>total_price</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>total_num</t>
+  </si>
+  <si>
+    <t>商品总数量</t>
+  </si>
+  <si>
+    <t>member_cut</t>
+  </si>
+  <si>
+    <t>会员优惠</t>
+  </si>
+  <si>
+    <t>订单状态(0:待付款 1:已付款 2:待发货 3:待收货 4:已完成)</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>payment_time</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>consign_time</t>
+  </si>
+  <si>
+    <t>发货时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>交易完成时间</t>
+  </si>
+  <si>
+    <t>订单详情表(order_item)</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>订单表id(外键)</t>
+  </si>
+  <si>
+    <t>mail_product_id</t>
+  </si>
+  <si>
+    <t>商城产品表id(外键)</t>
+  </si>
+  <si>
+    <t>产品类型表id(外键)</t>
+  </si>
+  <si>
+    <t>product_type_name</t>
+  </si>
+  <si>
+    <t>产品类型名称</t>
+  </si>
+  <si>
+    <t>商品购买数量</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>商品标题</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>商品总金额</t>
+  </si>
+  <si>
+    <t>商品图片</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>商品优惠</t>
+  </si>
+  <si>
+    <t>是否删除(0:未删除 1:已删除 2:取消订单)</t>
+  </si>
+  <si>
+    <t>购物车表(car_table)</t>
+  </si>
+  <si>
     <t>user_id</t>
   </si>
   <si>
     <t>用户表id(外键)</t>
   </si>
   <si>
-    <t>address_id</t>
-  </si>
-  <si>
-    <t>收货地址表id(外键)</t>
-  </si>
-  <si>
-    <t>order_number</t>
-  </si>
-  <si>
-    <t>订单编号</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>实付金额</t>
-  </si>
-  <si>
-    <t>total_price</t>
-  </si>
-  <si>
-    <t>总金额</t>
-  </si>
-  <si>
-    <t>total_num</t>
-  </si>
-  <si>
-    <t>商品总数量</t>
-  </si>
-  <si>
-    <t>member_cut</t>
-  </si>
-  <si>
-    <t>会员优惠</t>
-  </si>
-  <si>
-    <t>订单状态(0:待付款 1:已付款 2:待发货 3:待收货 4:已完成)</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>payment_time</t>
-  </si>
-  <si>
-    <t>付款时间</t>
-  </si>
-  <si>
-    <t>consign_time</t>
-  </si>
-  <si>
-    <t>发货时间</t>
-  </si>
-  <si>
-    <t>end_time</t>
-  </si>
-  <si>
-    <t>交易完成时间</t>
-  </si>
-  <si>
-    <t>订单详情表(order_item)</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>订单表id(外键)</t>
-  </si>
-  <si>
-    <t>mail_product_id</t>
-  </si>
-  <si>
-    <t>商城产品表id(外键)</t>
-  </si>
-  <si>
-    <t>产品类型表id(外键)</t>
-  </si>
-  <si>
-    <t>product_type_name</t>
-  </si>
-  <si>
-    <t>产品类型名称</t>
-  </si>
-  <si>
-    <t>商品购买数量</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>商品标题</t>
-  </si>
-  <si>
-    <t>商品单价</t>
-  </si>
-  <si>
-    <t>商品总金额</t>
-  </si>
-  <si>
-    <t>商品图片</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>商品优惠</t>
-  </si>
-  <si>
-    <t>是否删除(0:未删除 1:已删除 2:取消订单)</t>
-  </si>
-  <si>
-    <t>购物车表(car_table)</t>
-  </si>
-  <si>
     <t>产品数量</t>
   </si>
   <si>
@@ -335,6 +341,30 @@
   </si>
   <si>
     <t>运单号码</t>
+  </si>
+  <si>
+    <t>收货地址表(address)</t>
+  </si>
+  <si>
+    <t>用户表id(外键,用户ID)</t>
+  </si>
+  <si>
+    <t>收货人姓名</t>
+  </si>
+  <si>
+    <t>收货人手机号</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>所在地区</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>收货地址</t>
   </si>
 </sst>
 </file>
@@ -343,8 +373,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -369,7 +399,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,6 +421,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -395,15 +463,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +497,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -432,31 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,45 +546,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -538,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,30 +777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -782,30 +788,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +822,54 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -849,148 +879,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,10 +1448,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:C109"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2328,13 +2358,13 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2367,7 +2397,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2394,7 +2424,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2434,24 +2464,24 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2476,8 +2506,103 @@
         <v>16</v>
       </c>
     </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2488,6 +2613,7 @@
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A119:C119"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>交易完成时间</t>
+  </si>
+  <si>
+    <t>抽奖订单表(lottery_order)</t>
+  </si>
+  <si>
+    <t>订单状态(2:待发货 3:待收货 4:已完成)</t>
   </si>
   <si>
     <t>订单详情表(order_item)</t>
@@ -372,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -397,22 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,83 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -525,7 +441,75 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,6 +530,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -568,187 +574,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +783,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -788,6 +818,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,210 +880,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,10 +1454,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2197,412 +2203,529 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>90</v>
+      <c r="A87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>91</v>
+      <c r="A88" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>93</v>
+      <c r="A89" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>94</v>
+      <c r="A90" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="A94" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>99</v>
+      <c r="A95" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="A98" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>4</v>
+      <c r="A99" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="7" t="s">
+      <c r="B108" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B112" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C112" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="8" t="s">
+      <c r="B119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="7" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B123" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C123" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="8" t="s">
+      <c r="B129" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2611,9 +2734,10 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="A132:C132"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="122">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>收货地址</t>
+  </si>
+  <si>
+    <t>抽奖表(lottery)</t>
+  </si>
+  <si>
+    <t>lottery_product_id</t>
+  </si>
+  <si>
+    <t>抽奖产品表id(外键)</t>
   </si>
 </sst>
 </file>
@@ -378,10 +387,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -403,30 +412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,7 +420,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,9 +440,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,21 +449,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,7 +472,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,25 +547,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,21 +556,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,13 +589,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,31 +727,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,127 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,15 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -803,6 +803,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +860,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -854,179 +889,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,10 +1463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2724,8 +2733,125 @@
         <v>16</v>
       </c>
     </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2738,6 +2864,7 @@
     <mergeCell ref="A111:C111"/>
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A132:C132"/>
+    <mergeCell ref="A143:C143"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -151,7 +151,7 @@
     <t>number_winners</t>
   </si>
   <si>
-    <t>中奖量</t>
+    <t>中奖次数</t>
   </si>
   <si>
     <t>recharge_points</t>
@@ -379,7 +379,40 @@
     <t>lottery_product_id</t>
   </si>
   <si>
-    <t>抽奖产品表id(外键)</t>
+    <t>抽奖产品表ID(外键)</t>
+  </si>
+  <si>
+    <t>状态(1:未开奖 2:进行中 3:已结束)</t>
+  </si>
+  <si>
+    <t>客户抽奖表(customer_lottery)</t>
+  </si>
+  <si>
+    <t>用户表ID(外键,用户ID)</t>
+  </si>
+  <si>
+    <t>lottery_id</t>
+  </si>
+  <si>
+    <t>抽奖表ID(外键)</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>is_win</t>
+  </si>
+  <si>
+    <t>是否中奖(0:未中奖 1:已中奖)</t>
+  </si>
+  <si>
+    <t>is_designated</t>
+  </si>
+  <si>
+    <t>是否被内定(0:未内定 1:已内定)</t>
   </si>
 </sst>
 </file>
@@ -387,9 +420,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -412,38 +445,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,13 +477,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,7 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,14 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -517,6 +521,34 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -532,23 +564,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,6 +579,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -583,12 +616,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -601,19 +730,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,133 +760,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,21 +821,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +851,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -844,15 +871,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,153 +907,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2786,72 +2819,134 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>16</v>
+      <c r="A153" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
@@ -2865,6 +2960,7 @@
     <mergeCell ref="A122:C122"/>
     <mergeCell ref="A132:C132"/>
     <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A153:C153"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
@@ -421,9 +421,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -445,14 +445,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -468,7 +468,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,89 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,49 +616,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,133 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,11 +827,57 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,48 +897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -908,17 +912,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,10 +930,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +942,133 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,16 +1499,16 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="71.15" customWidth="1"/>
-    <col min="4" max="4" width="42.3083333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="71.1481481481482" customWidth="1"/>
+    <col min="4" max="4" width="42.3055555555556" customWidth="1"/>
+    <col min="5" max="5" width="31.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28770" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="138">
   <si>
     <t>美乐云购数据库(mvs)</t>
   </si>
@@ -190,6 +190,12 @@
     <t>是否是抽奖客户(0:否 1:是)</t>
   </si>
   <si>
+    <t>is_auto</t>
+  </si>
+  <si>
+    <t>是否是机器人(0:否 1:是)</t>
+  </si>
+  <si>
     <t>商城订单表(mail_order)</t>
   </si>
   <si>
@@ -413,6 +419,15 @@
   </si>
   <si>
     <t>是否被内定(0:未内定 1:已内定)</t>
+  </si>
+  <si>
+    <t>手机号码表(telephone)</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>号码</t>
   </si>
 </sst>
 </file>
@@ -421,8 +436,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -451,6 +466,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -463,6 +485,44 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,16 +542,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,8 +571,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,30 +587,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,37 +609,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -616,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,17 +849,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,15 +865,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,21 +880,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,11 +901,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,148 +942,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,19 +1511,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="71.1481481481482" customWidth="1"/>
-    <col min="4" max="4" width="42.3055555555556" customWidth="1"/>
-    <col min="5" max="5" width="31.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="71.15" customWidth="1"/>
+    <col min="4" max="4" width="42.3083333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2033,53 +2048,53 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-    </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2098,7 +2113,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>64</v>
@@ -2109,7 +2124,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>66</v>
@@ -2127,13 +2142,13 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2142,7 +2157,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>72</v>
@@ -2150,32 +2165,32 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>78</v>
@@ -2186,7 +2201,7 @@
         <v>79</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>80</v>
@@ -2197,61 +2212,61 @@
         <v>81</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="8" t="s">
+      <c r="B79" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-    </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2270,43 +2285,43 @@
         <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>84</v>
+      <c r="A87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2314,61 +2329,61 @@
         <v>81</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="B92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-    </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B96" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2384,21 +2399,21 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="8" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="8" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>92</v>
@@ -2406,21 +2421,21 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>95</v>
@@ -2428,43 +2443,43 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>100</v>
@@ -2472,170 +2487,170 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+      <c r="B109" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B113" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C113" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="B120" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-    </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B124" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2651,91 +2666,91 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B129" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="B130" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
-    </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="8" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>9</v>
@@ -2757,142 +2772,142 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="8" t="s">
+      <c r="B141" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-    </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="5" t="s">
+      <c r="B147" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="A148" s="8" t="s">
         <v>122</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="5" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="B151" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B155" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="5" t="s">
+    <row r="156" spans="1:3">
+      <c r="A156" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="5" t="s">
+      <c r="B156" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="8" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>6</v>
@@ -2902,13 +2917,13 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="5" t="s">
+      <c r="B158" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2936,31 +2951,83 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="C161" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="B162" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="A165:C165"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -460,31 +460,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,7 +489,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,19 +572,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,45 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,17 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,181 +637,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,22 +849,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,6 +875,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,38 +932,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,148 +942,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -436,9 +436,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -467,6 +467,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -474,22 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,17 +494,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,8 +524,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,41 +556,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,9 +579,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,15 +836,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +870,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -896,20 +896,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +926,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,145 +945,145 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -436,9 +436,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -459,8 +459,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -481,14 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,64 +557,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,17 +572,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +587,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,17 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,8 +873,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,197 +937,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/美乐云购数据字典.xlsx
+++ b/美乐云购数据字典.xlsx
@@ -435,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -459,9 +459,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,21 +474,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -497,7 +482,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -514,7 +527,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,35 +568,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,8 +586,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,24 +602,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,13 +631,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,25 +739,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,19 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,115 +799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,17 +840,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,29 +884,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,26 +931,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +945,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,133 +957,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
